--- a/server/excel/url/globalYs(全局预算)_url.xlsx
+++ b/server/excel/url/globalYs(全局预算)_url.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9947"/>
+    <workbookView windowWidth="28695" windowHeight="14070"/>
   </bookViews>
   <sheets>
     <sheet name="sec" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
     <t>oid:int,nodeId:string,name:string,pageNum:int,pageSize:int,startOid:int,projectOid:int,type:int</t>
   </si>
   <si>
-    <t>主键,编号,名称,页码,数量,开始编号,工程项目ID,类型(1:大项|2:有单价的项)</t>
+    <t>主键,编号,名称,页码,数量,开始编号,工程项目ID,类型(1:无单价的项|2:有单价的项|3大项)</t>
   </si>
   <si>
     <t>result:CbhsGclQdYs[],total:long,priceTotal:double</t>
@@ -239,8 +239,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -270,21 +270,74 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,34 +351,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -342,6 +367,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -350,24 +398,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,44 +413,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -429,19 +429,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,78 +603,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -532,84 +610,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,6 +620,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -638,26 +671,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -696,177 +720,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1168,24 +1168,24 @@
   <sheetPr/>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.4444444444444" customWidth="1"/>
-    <col min="2" max="2" width="28.8888888888889" customWidth="1"/>
+    <col min="1" max="1" width="23.4416666666667" customWidth="1"/>
+    <col min="2" max="2" width="28.8916666666667" customWidth="1"/>
     <col min="3" max="3" width="41" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="9.88888888888889" customWidth="1"/>
+    <col min="5" max="5" width="9.89166666666667" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
     <col min="7" max="7" width="88.3333333333333" customWidth="1"/>
-    <col min="8" max="8" width="67.2222222222222" customWidth="1"/>
-    <col min="9" max="9" width="88.4444444444444" customWidth="1"/>
-    <col min="10" max="10" width="23.4444444444444" customWidth="1"/>
+    <col min="8" max="8" width="67.225" customWidth="1"/>
+    <col min="9" max="9" width="88.4416666666667" customWidth="1"/>
+    <col min="10" max="10" width="23.4416666666667" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="114.888888888889" customWidth="1"/>
+    <col min="12" max="12" width="114.891666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
